--- a/Fase 2/Plan de pruebas y casos de pruebas/Casos de Prueba.xls.xlsx
+++ b/Fase 2/Plan de pruebas y casos de pruebas/Casos de Prueba.xls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Desktop\Entrega2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\benja\Desktop\Plan de pruebas y casos de pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5DB3A95-2E47-42CD-B262-5E7FFA0B68A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48DD68C2-858F-4C83-8AB1-63EFF2889AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="172">
   <si>
     <t>Plantilla de Casos de Pruebas de Software</t>
   </si>
@@ -258,9 +258,6 @@
   <si>
     <t>Correo
 Accion: Validar</t>
-  </si>
-  <si>
-    <t>En caso de que el campo no se llene con el formato correcto ,da un aviso del foramto que tiene que tener e impide el envio del formulario</t>
   </si>
   <si>
     <t>Selección de "Región" en formulario de contacto</t>
@@ -515,6 +512,51 @@
   <si>
     <t>El botón de flecha del navbar si funciona</t>
   </si>
+  <si>
+    <t>Responsive de Pagina "Login"</t>
+  </si>
+  <si>
+    <t>26--10-2024</t>
+  </si>
+  <si>
+    <t>Login Page</t>
+  </si>
+  <si>
+    <t>Campo "Correo electronico"</t>
+  </si>
+  <si>
+    <t>Formulario de Login</t>
+  </si>
+  <si>
+    <t>Correo , Accion: Validar</t>
+  </si>
+  <si>
+    <t>En caso de que el campo no se llene con el formato correcto ,da un aviso del formato que tiene que tener e impide el envio del formulario</t>
+  </si>
+  <si>
+    <t>El campo valida de forma correcta que cumpla con el formato requerido y que sea un correo valido</t>
+  </si>
+  <si>
+    <t>Campo "contraseña"</t>
+  </si>
+  <si>
+    <t>Verificar que el campo valide y funcione</t>
+  </si>
+  <si>
+    <t>Verificar que el campo funcione de forma correcta</t>
+  </si>
+  <si>
+    <t>Recibir una contraseña por parte del usuario</t>
+  </si>
+  <si>
+    <t>Contraseña</t>
+  </si>
+  <si>
+    <t>En caso de que la contraseña no coincida con el correo o los requisitos mostrar un mensaje de alerta o en caso contrario entrar a la página de adminstración</t>
+  </si>
+  <si>
+    <t>El campo de contraseña funciona correctamente recibiendo y validando que sean los correctos.</t>
+  </si>
 </sst>
 </file>
 
@@ -669,10 +711,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -683,6 +721,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="99" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="99" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1142,7 +1184,7 @@
       <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="12">
         <v>45576</v>
       </c>
       <c r="E7" s="6" t="s">
@@ -1167,16 +1209,16 @@
         <v>44</v>
       </c>
       <c r="L7" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" s="14">
+      <c r="N7" s="12">
         <v>45576</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
@@ -1200,7 +1242,7 @@
       <c r="C8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="12">
         <v>45576</v>
       </c>
       <c r="E8" s="10" t="s">
@@ -1225,16 +1267,16 @@
         <v>44</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="12">
         <v>45576</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
@@ -1256,9 +1298,9 @@
         <v>56</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="12">
         <v>45576</v>
       </c>
       <c r="E9" s="10" t="s">
@@ -1283,16 +1325,16 @@
         <v>44</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="12">
         <v>45576</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -1314,9 +1356,9 @@
         <v>57</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="12">
         <v>45576</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -1341,16 +1383,16 @@
         <v>44</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="12">
         <v>45576</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
@@ -1372,9 +1414,9 @@
         <v>58</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="12">
         <v>45576</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1399,16 +1441,16 @@
         <v>44</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N11" s="14">
+      <c r="N11" s="12">
         <v>45576</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
@@ -1430,9 +1472,9 @@
         <v>59</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="12">
         <v>45576</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -1457,16 +1499,16 @@
         <v>44</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N12" s="14">
+      <c r="N12" s="12">
         <v>45576</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
@@ -1488,16 +1530,16 @@
         <v>45</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="12">
         <v>45576</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>44</v>
@@ -1515,16 +1557,16 @@
         <v>44</v>
       </c>
       <c r="L13" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="N13" s="14">
+      <c r="N13" s="12">
         <v>45576</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
@@ -1548,7 +1590,7 @@
       <c r="C14" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="12">
         <v>45576</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -1573,16 +1615,16 @@
         <v>44</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N14" s="14">
+      <c r="N14" s="12">
         <v>45576</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
@@ -1606,7 +1648,7 @@
       <c r="C15" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="12">
         <v>45576</v>
       </c>
       <c r="E15" s="11" t="s">
@@ -1615,8 +1657,8 @@
       <c r="F15" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="15" t="s">
-        <v>81</v>
+      <c r="G15" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>62</v>
@@ -1631,16 +1673,16 @@
         <v>44</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="12">
         <v>45576</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
@@ -1661,23 +1703,23 @@
       <c r="B16" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>83</v>
+      <c r="C16" s="15" t="s">
+        <v>82</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="14">
         <v>45576</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="13" t="s">
         <v>73</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>43</v>
@@ -1689,16 +1731,16 @@
         <v>44</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="12">
         <v>45576</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -1717,25 +1759,25 @@
         <v>11</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="12">
         <v>45576</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G17" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G17" s="15" t="s">
-        <v>78</v>
-      </c>
       <c r="H17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>43</v>
@@ -1747,16 +1789,16 @@
         <v>44</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="12">
         <v>45576</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
@@ -1775,25 +1817,25 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="12">
         <v>45576</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
-      <c r="G18" s="15" t="s">
-        <v>79</v>
+      <c r="G18" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>43</v>
@@ -1805,16 +1847,16 @@
         <v>44</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="12">
         <v>45576</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
@@ -1833,25 +1875,25 @@
         <v>13</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D19" s="12">
         <v>45576</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>53</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>43</v>
@@ -1863,16 +1905,16 @@
         <v>44</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N19" s="14">
+      <c r="N19" s="12">
         <v>45576</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
@@ -1891,25 +1933,25 @@
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="12">
         <v>45576</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>43</v>
@@ -1921,16 +1963,16 @@
         <v>44</v>
       </c>
       <c r="L20" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="M20" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="N20" s="14">
+      <c r="N20" s="12">
         <v>45576</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
@@ -1949,25 +1991,25 @@
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="14">
+      <c r="D21" s="12">
         <v>45576</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
-      <c r="G21" s="15" t="s">
-        <v>101</v>
+      <c r="G21" s="13" t="s">
+        <v>100</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>43</v>
@@ -1980,7 +2022,7 @@
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="14">
+      <c r="N21" s="12">
         <v>45576</v>
       </c>
       <c r="O21" s="6"/>
@@ -2001,25 +2043,25 @@
         <v>16</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D22" s="12">
         <v>45576</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>43</v>
@@ -2031,16 +2073,16 @@
         <v>44</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N22" s="12">
         <v>45576</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -2059,25 +2101,25 @@
         <v>17</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="12">
         <v>45576</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>43</v>
@@ -2089,16 +2131,16 @@
         <v>44</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="12">
         <v>45576</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -2117,25 +2159,25 @@
         <v>18</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="12">
         <v>45576</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>43</v>
@@ -2147,16 +2189,16 @@
         <v>44</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
-      <c r="N24" s="14">
+      <c r="N24" s="12">
         <v>45576</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -2175,25 +2217,25 @@
         <v>19</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D25" s="14">
+      <c r="D25" s="12">
         <v>45576</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>43</v>
@@ -2205,16 +2247,16 @@
         <v>44</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
-      <c r="N25" s="14">
+      <c r="N25" s="12">
         <v>45576</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -2233,25 +2275,25 @@
         <v>20</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26" s="14">
+      <c r="D26" s="12">
         <v>45576</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>43</v>
@@ -2263,16 +2305,16 @@
         <v>44</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
-      <c r="N26" s="14">
+      <c r="N26" s="12">
         <v>45576</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -2291,25 +2333,25 @@
         <v>21</v>
       </c>
       <c r="B27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="14">
+      <c r="D27" s="12">
         <v>45576</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>43</v>
@@ -2321,16 +2363,16 @@
         <v>44</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
-      <c r="N27" s="14">
+      <c r="N27" s="12">
         <v>45576</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -2349,25 +2391,25 @@
         <v>22</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="14">
+      <c r="D28" s="12">
         <v>45576</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>44</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>43</v>
@@ -2379,16 +2421,16 @@
         <v>44</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M28" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
-      <c r="N28" s="14">
+      <c r="N28" s="12">
         <v>45576</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -2403,21 +2445,51 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="A29" s="6">
+        <v>23</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N29" s="12">
+        <v>45591</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -2431,21 +2503,51 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="A30" s="6">
+        <v>24</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D30" s="12">
+        <v>45591</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="12">
+        <v>45591</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -2459,21 +2561,51 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="A31" s="6">
+        <v>25</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="12">
+        <v>45591</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N31" s="12">
+        <v>45591</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>124</v>
+      </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -29563,21 +29695,6 @@
       <c r="Z998" s="2"/>
     </row>
     <row r="999" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
       <c r="P999" s="2"/>
       <c r="Q999" s="2"/>
       <c r="R999" s="2"/>
@@ -29591,21 +29708,6 @@
       <c r="Z999" s="2"/>
     </row>
     <row r="1000" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
       <c r="P1000" s="2"/>
       <c r="Q1000" s="2"/>
       <c r="R1000" s="2"/>
@@ -29619,21 +29721,6 @@
       <c r="Z1000" s="2"/>
     </row>
     <row r="1001" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1001" s="2"/>
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-      <c r="D1001" s="2"/>
-      <c r="E1001" s="2"/>
-      <c r="F1001" s="2"/>
-      <c r="G1001" s="2"/>
-      <c r="H1001" s="2"/>
-      <c r="I1001" s="2"/>
-      <c r="J1001" s="2"/>
-      <c r="K1001" s="2"/>
-      <c r="L1001" s="2"/>
-      <c r="M1001" s="2"/>
-      <c r="N1001" s="2"/>
-      <c r="O1001" s="2"/>
       <c r="P1001" s="2"/>
       <c r="Q1001" s="2"/>
       <c r="R1001" s="2"/>
@@ -29647,21 +29734,6 @@
       <c r="Z1001" s="2"/>
     </row>
     <row r="1002" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A1002" s="2"/>
-      <c r="B1002" s="2"/>
-      <c r="C1002" s="2"/>
-      <c r="D1002" s="2"/>
-      <c r="E1002" s="2"/>
-      <c r="F1002" s="2"/>
-      <c r="G1002" s="2"/>
-      <c r="H1002" s="2"/>
-      <c r="I1002" s="2"/>
-      <c r="J1002" s="2"/>
-      <c r="K1002" s="2"/>
-      <c r="L1002" s="2"/>
-      <c r="M1002" s="2"/>
-      <c r="N1002" s="2"/>
-      <c r="O1002" s="2"/>
       <c r="P1002" s="2"/>
       <c r="Q1002" s="2"/>
       <c r="R1002" s="2"/>
@@ -30210,10 +30282,10 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="13"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
